--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ptprs</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.055444534268052</v>
+        <v>0.009008</v>
       </c>
       <c r="H2">
-        <v>0.055444534268052</v>
+        <v>0.027024</v>
       </c>
       <c r="I2">
-        <v>0.3386225021220194</v>
+        <v>0.009775433435787767</v>
       </c>
       <c r="J2">
-        <v>0.3386225021220194</v>
+        <v>0.009775433435787767</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.05624843305465</v>
+        <v>4.127188333333333</v>
       </c>
       <c r="N2">
-        <v>4.05624843305465</v>
+        <v>12.381565</v>
       </c>
       <c r="O2">
-        <v>0.05737183775943819</v>
+        <v>0.0561359176022362</v>
       </c>
       <c r="P2">
-        <v>0.05737183775943819</v>
+        <v>0.05613591760223619</v>
       </c>
       <c r="Q2">
-        <v>0.2248968052462308</v>
+        <v>0.03717771250666666</v>
       </c>
       <c r="R2">
-        <v>0.2248968052462308</v>
+        <v>0.33459941256</v>
       </c>
       <c r="S2">
-        <v>0.01942739525343951</v>
+        <v>0.0005487529258775268</v>
       </c>
       <c r="T2">
-        <v>0.01942739525343951</v>
+        <v>0.0005487529258775267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.055444534268052</v>
+        <v>0.009008</v>
       </c>
       <c r="H3">
-        <v>0.055444534268052</v>
+        <v>0.027024</v>
       </c>
       <c r="I3">
-        <v>0.3386225021220194</v>
+        <v>0.009775433435787767</v>
       </c>
       <c r="J3">
-        <v>0.3386225021220194</v>
+        <v>0.009775433435787767</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.9968190203529</v>
+        <v>47.24901333333333</v>
       </c>
       <c r="N3">
-        <v>46.9968190203529</v>
+        <v>141.74704</v>
       </c>
       <c r="O3">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336346</v>
       </c>
       <c r="P3">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336345</v>
       </c>
       <c r="Q3">
-        <v>2.605716742663394</v>
+        <v>0.4256191121066666</v>
       </c>
       <c r="R3">
-        <v>2.605716742663394</v>
+        <v>3.83057200896</v>
       </c>
       <c r="S3">
-        <v>0.2250911880353406</v>
+        <v>0.006282251309465229</v>
       </c>
       <c r="T3">
-        <v>0.2250911880353406</v>
+        <v>0.006282251309465227</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.055444534268052</v>
+        <v>0.009008</v>
       </c>
       <c r="H4">
-        <v>0.055444534268052</v>
+        <v>0.027024</v>
       </c>
       <c r="I4">
-        <v>0.3386225021220194</v>
+        <v>0.009775433435787767</v>
       </c>
       <c r="J4">
-        <v>0.3386225021220194</v>
+        <v>0.009775433435787767</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.96217756800299</v>
+        <v>8.218847999999999</v>
       </c>
       <c r="N4">
-        <v>6.96217756800299</v>
+        <v>24.656544</v>
       </c>
       <c r="O4">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="P4">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="Q4">
-        <v>0.3860146927494047</v>
+        <v>0.074035382784</v>
       </c>
       <c r="R4">
-        <v>0.3860146927494047</v>
+        <v>0.666318445056</v>
       </c>
       <c r="S4">
-        <v>0.03334533810503466</v>
+        <v>0.001092781943318795</v>
       </c>
       <c r="T4">
-        <v>0.03334533810503466</v>
+        <v>0.001092781943318795</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.055444534268052</v>
+        <v>0.009008</v>
       </c>
       <c r="H5">
-        <v>0.055444534268052</v>
+        <v>0.027024</v>
       </c>
       <c r="I5">
-        <v>0.3386225021220194</v>
+        <v>0.009775433435787767</v>
       </c>
       <c r="J5">
-        <v>0.3386225021220194</v>
+        <v>0.009775433435787767</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6857921331359</v>
+        <v>13.92629833333334</v>
       </c>
       <c r="N5">
-        <v>12.6857921331359</v>
+        <v>41.77889500000001</v>
       </c>
       <c r="O5">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="P5">
-        <v>0.179428656830109</v>
+        <v>0.1894184303222152</v>
       </c>
       <c r="Q5">
-        <v>0.7033578366430379</v>
+        <v>0.1254480953866667</v>
       </c>
       <c r="R5">
-        <v>0.7033578366430379</v>
+        <v>1.12903285848</v>
       </c>
       <c r="S5">
-        <v>0.06075858072820468</v>
+        <v>0.001851647257126218</v>
       </c>
       <c r="T5">
-        <v>0.06075858072820468</v>
+        <v>0.001851647257126218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.108290993998977</v>
+        <v>0.07403633333333333</v>
       </c>
       <c r="H6">
-        <v>0.108290993998977</v>
+        <v>0.222109</v>
       </c>
       <c r="I6">
-        <v>0.6613774978779806</v>
+        <v>0.08034383307391152</v>
       </c>
       <c r="J6">
-        <v>0.6613774978779806</v>
+        <v>0.08034383307391152</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.05624843305465</v>
+        <v>4.127188333333333</v>
       </c>
       <c r="N6">
-        <v>4.05624843305465</v>
+        <v>12.381565</v>
       </c>
       <c r="O6">
-        <v>0.05737183775943819</v>
+        <v>0.0561359176022362</v>
       </c>
       <c r="P6">
-        <v>0.05737183775943819</v>
+        <v>0.05613591760223619</v>
       </c>
       <c r="Q6">
-        <v>0.439255174722281</v>
+        <v>0.305561891176111</v>
       </c>
       <c r="R6">
-        <v>0.439255174722281</v>
+        <v>2.750057020584999</v>
       </c>
       <c r="S6">
-        <v>0.03794444250599868</v>
+        <v>0.004510174793284917</v>
       </c>
       <c r="T6">
-        <v>0.03794444250599868</v>
+        <v>0.004510174793284916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.108290993998977</v>
+        <v>0.07403633333333333</v>
       </c>
       <c r="H7">
-        <v>0.108290993998977</v>
+        <v>0.222109</v>
       </c>
       <c r="I7">
-        <v>0.6613774978779806</v>
+        <v>0.08034383307391152</v>
       </c>
       <c r="J7">
-        <v>0.6613774978779806</v>
+        <v>0.08034383307391152</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.9968190203529</v>
+        <v>47.24901333333333</v>
       </c>
       <c r="N7">
-        <v>46.9968190203529</v>
+        <v>141.74704</v>
       </c>
       <c r="O7">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336346</v>
       </c>
       <c r="P7">
-        <v>0.664726019755861</v>
+        <v>0.6426570597336345</v>
       </c>
       <c r="Q7">
-        <v>5.089332246504044</v>
+        <v>3.498143700817777</v>
       </c>
       <c r="R7">
-        <v>5.089332246504044</v>
+        <v>31.48329330736</v>
       </c>
       <c r="S7">
-        <v>0.4396348317205204</v>
+        <v>0.05163353153100993</v>
       </c>
       <c r="T7">
-        <v>0.4396348317205204</v>
+        <v>0.05163353153100991</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.108290993998977</v>
+        <v>0.07403633333333333</v>
       </c>
       <c r="H8">
-        <v>0.108290993998977</v>
+        <v>0.222109</v>
       </c>
       <c r="I8">
-        <v>0.6613774978779806</v>
+        <v>0.08034383307391152</v>
       </c>
       <c r="J8">
-        <v>0.6613774978779806</v>
+        <v>0.08034383307391152</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.96217756800299</v>
+        <v>8.218847999999999</v>
       </c>
       <c r="N8">
-        <v>6.96217756800299</v>
+        <v>24.656544</v>
       </c>
       <c r="O8">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="P8">
-        <v>0.09847348565459178</v>
+        <v>0.1117885923419141</v>
       </c>
       <c r="Q8">
-        <v>0.7539411292364241</v>
+        <v>0.608493370144</v>
       </c>
       <c r="R8">
-        <v>0.7539411292364241</v>
+        <v>5.476440331296</v>
       </c>
       <c r="S8">
-        <v>0.06512814754955713</v>
+        <v>0.008981524002686288</v>
       </c>
       <c r="T8">
-        <v>0.06512814754955713</v>
+        <v>0.008981524002686288</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.07403633333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.222109</v>
+      </c>
+      <c r="I9">
+        <v>0.08034383307391152</v>
+      </c>
+      <c r="J9">
+        <v>0.08034383307391152</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.92629833333334</v>
+      </c>
+      <c r="N9">
+        <v>41.77889500000001</v>
+      </c>
+      <c r="O9">
+        <v>0.1894184303222152</v>
+      </c>
+      <c r="P9">
+        <v>0.1894184303222152</v>
+      </c>
+      <c r="Q9">
+        <v>1.031052065506111</v>
+      </c>
+      <c r="R9">
+        <v>9.279468589555002</v>
+      </c>
+      <c r="S9">
+        <v>0.0152186027469304</v>
+      </c>
+      <c r="T9">
+        <v>0.0152186027469304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.8384493333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.515348</v>
+      </c>
+      <c r="I10">
+        <v>0.9098807334903006</v>
+      </c>
+      <c r="J10">
+        <v>0.9098807334903007</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.127188333333333</v>
+      </c>
+      <c r="N10">
+        <v>12.381565</v>
+      </c>
+      <c r="O10">
+        <v>0.0561359176022362</v>
+      </c>
+      <c r="P10">
+        <v>0.05613591760223619</v>
+      </c>
+      <c r="Q10">
+        <v>3.460438306624444</v>
+      </c>
+      <c r="R10">
+        <v>31.14394475961999</v>
+      </c>
+      <c r="S10">
+        <v>0.05107698988307375</v>
+      </c>
+      <c r="T10">
+        <v>0.05107698988307375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.108290993998977</v>
-      </c>
-      <c r="H9">
-        <v>0.108290993998977</v>
-      </c>
-      <c r="I9">
-        <v>0.6613774978779806</v>
-      </c>
-      <c r="J9">
-        <v>0.6613774978779806</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>12.6857921331359</v>
-      </c>
-      <c r="N9">
-        <v>12.6857921331359</v>
-      </c>
-      <c r="O9">
-        <v>0.179428656830109</v>
-      </c>
-      <c r="P9">
-        <v>0.179428656830109</v>
-      </c>
-      <c r="Q9">
-        <v>1.373757039761689</v>
-      </c>
-      <c r="R9">
-        <v>1.373757039761689</v>
-      </c>
-      <c r="S9">
-        <v>0.1186700761019043</v>
-      </c>
-      <c r="T9">
-        <v>0.1186700761019043</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.8384493333333333</v>
+      </c>
+      <c r="H11">
+        <v>2.515348</v>
+      </c>
+      <c r="I11">
+        <v>0.9098807334903006</v>
+      </c>
+      <c r="J11">
+        <v>0.9098807334903007</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>47.24901333333333</v>
+      </c>
+      <c r="N11">
+        <v>141.74704</v>
+      </c>
+      <c r="O11">
+        <v>0.6426570597336346</v>
+      </c>
+      <c r="P11">
+        <v>0.6426570597336345</v>
+      </c>
+      <c r="Q11">
+        <v>39.6159037299911</v>
+      </c>
+      <c r="R11">
+        <v>356.54313356992</v>
+      </c>
+      <c r="S11">
+        <v>0.5847412768931595</v>
+      </c>
+      <c r="T11">
+        <v>0.5847412768931594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.8384493333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.515348</v>
+      </c>
+      <c r="I12">
+        <v>0.9098807334903006</v>
+      </c>
+      <c r="J12">
+        <v>0.9098807334903007</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>8.218847999999999</v>
+      </c>
+      <c r="N12">
+        <v>24.656544</v>
+      </c>
+      <c r="O12">
+        <v>0.1117885923419141</v>
+      </c>
+      <c r="P12">
+        <v>0.1117885923419141</v>
+      </c>
+      <c r="Q12">
+        <v>6.891087626367999</v>
+      </c>
+      <c r="R12">
+        <v>62.019788637312</v>
+      </c>
+      <c r="S12">
+        <v>0.101714286395909</v>
+      </c>
+      <c r="T12">
+        <v>0.101714286395909</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.8384493333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.515348</v>
+      </c>
+      <c r="I13">
+        <v>0.9098807334903006</v>
+      </c>
+      <c r="J13">
+        <v>0.9098807334903007</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>13.92629833333334</v>
+      </c>
+      <c r="N13">
+        <v>41.77889500000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1894184303222152</v>
+      </c>
+      <c r="P13">
+        <v>0.1894184303222152</v>
+      </c>
+      <c r="Q13">
+        <v>11.67649555338445</v>
+      </c>
+      <c r="R13">
+        <v>105.08845998046</v>
+      </c>
+      <c r="S13">
+        <v>0.1723481803181586</v>
+      </c>
+      <c r="T13">
+        <v>0.1723481803181586</v>
       </c>
     </row>
   </sheetData>
